--- a/Ke-hoach-thuc-hien-Do-An.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c524ac135ccefbd/Máy tính/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcdd\Downloads\OOP\WEEK3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{0E0B7AB8-405D-456B-A119-0E1B116CB418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BEAF8DB-7CD4-4765-B743-CFFA889BA420}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E1D392-458C-4495-8A0D-98B3BD4AA66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -66,33 +66,6 @@
     <t>Ngày kết thúc (thực tế)</t>
   </si>
   <si>
-    <t>23/9/2018</t>
-  </si>
-  <si>
-    <t>17/10/2018</t>
-  </si>
-  <si>
-    <t>13/10/2018</t>
-  </si>
-  <si>
-    <t>14/10/2018</t>
-  </si>
-  <si>
-    <t>18/10/2018</t>
-  </si>
-  <si>
-    <t>16/10/2018</t>
-  </si>
-  <si>
-    <t>20/10/2018</t>
-  </si>
-  <si>
-    <t>25/10/2018</t>
-  </si>
-  <si>
-    <t>27/10/2018</t>
-  </si>
-  <si>
     <t>Sinh viên thực hiện:</t>
   </si>
   <si>
@@ -145,13 +118,22 @@
   </si>
   <si>
     <t>Thêm các tính năng khác cho trang web</t>
+  </si>
+  <si>
+    <t>Kiểm thử</t>
+  </si>
+  <si>
+    <t>Viết báo cáo cho đồ án</t>
+  </si>
+  <si>
+    <t>Đưa nội dung lên website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,11 +172,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
@@ -576,9 +553,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -593,27 +570,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,102 +582,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -731,38 +603,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -770,7 +720,22 @@
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Siêu kết nối" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -785,10 +750,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color auto="1"/>
@@ -799,10 +766,6 @@
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal style="hair">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -819,10 +782,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="dashed">
           <color auto="1"/>
         </left>
@@ -833,8 +798,6 @@
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -851,10 +814,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="dashed">
           <color auto="1"/>
         </left>
@@ -865,8 +830,6 @@
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -883,10 +846,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="dashed">
           <color auto="1"/>
         </left>
@@ -897,8 +862,6 @@
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -915,10 +878,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="dashed">
           <color auto="1"/>
         </left>
@@ -929,10 +894,6 @@
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal style="hair">
-          <color auto="1"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -949,7 +910,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -967,7 +930,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -997,7 +962,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1015,11 +982,26 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <scheme val="none"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+        <scheme val="major"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1080,19 +1062,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J28" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J28" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A7:J28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DANH SÁCH CÔNG VIỆC" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ghi chú" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Phạm Đắc Trường" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm Hồng Đại" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ2" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DANH SÁCH CÔNG VIỆC" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ghi chú" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Phạm Đắc Trường" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm Hồng Đại" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ2" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1363,117 +1345,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="13" customWidth="1"/>
-    <col min="2" max="2" width="49.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.09765625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="33.09765625" style="15" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="25.8984375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="7" style="7" customWidth="1"/>
+    <col min="2" max="2" width="55.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.09765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="33.09765625" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="25.8984375" style="9" customWidth="1"/>
     <col min="11" max="26" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
-    </row>
-    <row r="2" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53" t="s">
+    <row r="1" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="53">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="18">
         <v>19110307</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="53">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="18">
         <v>19110161</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-    </row>
-    <row r="6" spans="1:26" s="51" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1483,53 +1465,53 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37">
+    <row r="8" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="31" t="s">
+      <c r="B8" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="56">
+      <c r="F8" s="30"/>
+      <c r="G8" s="31">
         <v>44435</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="31">
         <v>44440</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1548,52 +1530,52 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="34">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="30" t="s">
+      <c r="B9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="57">
+      <c r="F9" s="39"/>
+      <c r="G9" s="40">
         <v>44441</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="40">
         <v>44444</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="44"/>
-    </row>
-    <row r="10" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="I9" s="38"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="36">
+      <c r="F10" s="30"/>
+      <c r="G10" s="42">
         <v>44445</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="42">
         <v>44459</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="41"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1611,31 +1593,31 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="42">
         <v>44460</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="42">
         <v>44463</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="43"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1654,78 +1636,78 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="34">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="31" t="s">
+      <c r="B12" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="36">
+      <c r="F12" s="30"/>
+      <c r="G12" s="42">
         <v>44464</v>
       </c>
-      <c r="H12" s="36">
-        <v>44474</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="28"/>
+      <c r="H12" s="42">
+        <v>44477</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="34">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="31" t="s">
+      <c r="B13" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="36">
-        <v>44475</v>
-      </c>
-      <c r="H13" s="36">
-        <v>44489</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="F13" s="30"/>
+      <c r="G13" s="42">
+        <v>44477</v>
+      </c>
+      <c r="H13" s="42">
+        <v>44494</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
         <v>7</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="36">
-        <v>44490</v>
-      </c>
-      <c r="H14" s="36">
-        <v>44500</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="28"/>
+      <c r="G14" s="42">
+        <v>44494</v>
+      </c>
+      <c r="H14" s="42">
+        <v>44509</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1743,23 +1725,29 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
         <v>8</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="36">
-        <v>43169</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="42">
+        <v>44510</v>
+      </c>
+      <c r="H15" s="42">
+        <v>44515</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1777,23 +1765,29 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
         <v>9</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="36">
-        <v>43200</v>
-      </c>
-      <c r="H16" s="36">
-        <v>43291</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="42">
+        <v>44515</v>
+      </c>
+      <c r="H16" s="42">
+        <v>44524</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="46"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1811,23 +1805,29 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="17" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
         <v>10</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="36">
-        <v>43200</v>
-      </c>
-      <c r="H17" s="36">
-        <v>43291</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="42">
+        <v>44525</v>
+      </c>
+      <c r="H17" s="42">
+        <v>44530</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="46"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1845,23 +1845,19 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34">
         <v>11</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="36">
-        <v>43200</v>
-      </c>
-      <c r="H18" s="36">
-        <v>43291</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1880,42 +1876,34 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="34">
         <v>12</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="36">
-        <v>43200</v>
-      </c>
-      <c r="H19" s="36">
-        <v>43291</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
         <v>13</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="36">
-        <v>43322</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1933,25 +1921,21 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+    <row r="21" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>14</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="36">
-        <v>43322</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="28"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="46"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1969,25 +1953,21 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="22" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
         <v>15</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="36">
-        <v>43322</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="28"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="46"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2005,25 +1985,21 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+    <row r="23" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
         <v>16</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="28"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2041,25 +2017,21 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
         <v>17</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="28"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2077,25 +2049,21 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" s="11" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
         <v>18</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="28"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2113,23 +2081,19 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+    <row r="26" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
         <v>19</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="42"/>
-      <c r="J26" s="41"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2147,23 +2111,19 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+    <row r="27" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
         <v>20</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="41"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="44"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2181,19 +2141,19 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="29"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>

--- a/Ke-hoach-thuc-hien-Do-An.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcdd\Downloads\OOP\WEEK3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E1D392-458C-4495-8A0D-98B3BD4AA66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="2" r:id="rId1"/>
@@ -96,12 +95,6 @@
     <t>Xác định mục đích thiết kế website</t>
   </si>
   <si>
-    <t>Phân tích giao diện website</t>
-  </si>
-  <si>
-    <t>Tìm hiểu các công nghệ làm Website</t>
-  </si>
-  <si>
     <t>Thiết kế giao diện Website</t>
   </si>
   <si>
@@ -127,24 +120,30 @@
   </si>
   <si>
     <t>Đưa nội dung lên website</t>
+  </si>
+  <si>
+    <t>Tìm hiểu các ngôn ngữ làm Website</t>
+  </si>
+  <si>
+    <t>Phân tích và khảo sát giao diện website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -201,14 +200,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
@@ -615,6 +614,93 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -626,116 +712,14 @@
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Siêu kết nối" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -750,8 +734,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -782,8 +764,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -814,8 +794,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -846,8 +824,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -878,8 +854,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -910,8 +884,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -930,8 +902,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -962,8 +932,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -982,8 +950,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -998,8 +964,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="163"/>
         <scheme val="major"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1014,6 +978,19 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="major"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -1062,19 +1039,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J28" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A7:J28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:J28" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A7:J28"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DANH SÁCH CÔNG VIỆC" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ghi chú" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Phạm Đắc Trường" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm Hồng Đại" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ2" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="1"/>
+    <tableColumn id="1" name="STT" dataDxfId="9"/>
+    <tableColumn id="2" name="DANH SÁCH CÔNG VIỆC" dataDxfId="8"/>
+    <tableColumn id="3" name="Ghi chú" dataDxfId="7"/>
+    <tableColumn id="7" name="Phạm Đắc Trường" dataDxfId="6"/>
+    <tableColumn id="4" name="Phạm Hồng Đại" dataDxfId="5"/>
+    <tableColumn id="5" name="GHI CHÚ2" dataDxfId="4"/>
+    <tableColumn id="10" name="Ngày bắt đầu (dự kiến)" dataDxfId="3"/>
+    <tableColumn id="9" name="Ngày kết thúc (dự kiến)" dataDxfId="2"/>
+    <tableColumn id="8" name="Ngày bắt đầu (thực tế)" dataDxfId="1"/>
+    <tableColumn id="6" name="Ngày kết thúc (thực tế)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1342,70 +1319,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
-    <col min="2" max="2" width="55.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.09765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="25.8984375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="33.09765625" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="10" width="25.8984375" style="9" customWidth="1"/>
-    <col min="11" max="26" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="55.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="10" width="25.88671875" style="9" customWidth="1"/>
+    <col min="11" max="26" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="C3" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:26" s="16" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -1489,29 +1466,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+    <row r="8" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31">
+      <c r="F8" s="26"/>
+      <c r="G8" s="27">
         <v>44435</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="27">
         <v>44440</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1529,53 +1506,53 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37" t="s">
+      <c r="B9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40">
+      <c r="F9" s="35"/>
+      <c r="G9" s="36">
         <v>44441</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="36">
         <v>44444</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="41"/>
-    </row>
-    <row r="10" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="I9" s="34"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
         <v>3</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="42">
+      <c r="F10" s="26"/>
+      <c r="G10" s="38">
         <v>44445</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="38">
         <v>44459</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1593,31 +1570,31 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+    <row r="11" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
         <v>4</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="28" t="s">
+      <c r="B11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="38">
         <v>44460</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="38">
         <v>44463</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="45"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1635,79 +1612,79 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+    <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
         <v>5</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="42">
+      <c r="F12" s="26"/>
+      <c r="G12" s="38">
         <v>44464</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="38">
         <v>44477</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="46"/>
-    </row>
-    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="I12" s="26"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
         <v>6</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="28" t="s">
+      <c r="B13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="42">
+      <c r="F13" s="26"/>
+      <c r="G13" s="38">
         <v>44477</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="38">
         <v>44494</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="I13" s="26"/>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
         <v>7</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="38">
         <v>44494</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="38">
         <v>44509</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1725,29 +1702,29 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+    <row r="15" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
         <v>8</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37" t="s">
+      <c r="B15" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="42">
+      <c r="F15" s="26"/>
+      <c r="G15" s="38">
         <v>44510</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="38">
         <v>44515</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1765,29 +1742,29 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+    <row r="16" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
         <v>9</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="28" t="s">
+      <c r="B16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="42">
+      <c r="F16" s="26"/>
+      <c r="G16" s="38">
         <v>44515</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="38">
         <v>44524</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="46"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1805,29 +1782,29 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+    <row r="17" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
         <v>10</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="28" t="s">
+      <c r="B17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="42">
+      <c r="F17" s="26"/>
+      <c r="G17" s="38">
         <v>44525</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="38">
         <v>44530</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="46"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1845,19 +1822,19 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+    <row r="18" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
         <v>11</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="46"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1875,35 +1852,35 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+    <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
         <v>12</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
         <v>13</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="46"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1921,21 +1898,21 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+    <row r="21" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
         <v>14</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="46"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1953,21 +1930,21 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+    <row r="22" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
         <v>15</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="46"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1985,21 +1962,21 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+    <row r="23" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30">
         <v>16</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="46"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2017,21 +1994,21 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+    <row r="24" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
         <v>17</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="46"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2049,21 +2026,21 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+    <row r="25" spans="1:26" s="6" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
         <v>18</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="46"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -2081,19 +2058,19 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+    <row r="26" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
         <v>19</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2111,19 +2088,19 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+    <row r="27" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
         <v>20</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2141,19 +2118,19 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2178,7 +2155,7 @@
     <mergeCell ref="C3:J3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{9930DC33-F23E-4787-9607-8606A41168E7}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
